--- a/src/main/webapp/WEB-INF/upload/userdata.xlsx
+++ b/src/main/webapp/WEB-INF/upload/userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9332C9-FDC0-45E3-8863-7995E26E595D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DA542-BC5F-418B-95D0-E0E4625AD7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{B6E0569E-7D8A-4FB7-8AF7-0715695C3C6F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>ddd</t>
   </si>
@@ -83,16 +83,39 @@
   </si>
   <si>
     <t>MAle</t>
+  </si>
+  <si>
+    <t>ddd@gamil.com</t>
+  </si>
+  <si>
+    <t>eee@gamil.com</t>
+  </si>
+  <si>
+    <t>fff@gamil.com</t>
+  </si>
+  <si>
+    <t>ggg@gamil.com</t>
+  </si>
+  <si>
+    <t>hhh@gamil.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,13 +138,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,18 +460,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58371E83-1AB9-44DD-AE8A-84DF2625E893}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,14 +485,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -478,14 +508,17 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -498,14 +531,17 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -518,14 +554,17 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -538,14 +577,24 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{37679979-A529-4BB9-809A-AC20E1634379}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{D7DA5FC0-7638-48F7-B06E-703691627F32}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{BE7DEF2B-37A9-4DEB-B83B-560D27ADB106}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{A0ADB45E-55E9-408E-8799-173523FF8172}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{D8484CB0-38A2-49A3-969C-B3692C2C143B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/webapp/WEB-INF/upload/userdata.xlsx
+++ b/src/main/webapp/WEB-INF/upload/userdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21DA542-BC5F-418B-95D0-E0E4625AD7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902688AA-A6FA-45F9-A30E-DACDA9C2C062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{B6E0569E-7D8A-4FB7-8AF7-0715695C3C6F}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{B6E0569E-7D8A-4FB7-8AF7-0715695C3C6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>ddd</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>hhh@gamil.com</t>
+  </si>
+  <si>
+    <t>shahuraj</t>
+  </si>
+  <si>
+    <t>shahushinde@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -460,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58371E83-1AB9-44DD-AE8A-84DF2625E893}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +593,29 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1234</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{37679979-A529-4BB9-809A-AC20E1634379}"/>
@@ -594,6 +623,7 @@
     <hyperlink ref="E3" r:id="rId3" xr:uid="{BE7DEF2B-37A9-4DEB-B83B-560D27ADB106}"/>
     <hyperlink ref="E4" r:id="rId4" xr:uid="{A0ADB45E-55E9-408E-8799-173523FF8172}"/>
     <hyperlink ref="E5" r:id="rId5" xr:uid="{D8484CB0-38A2-49A3-969C-B3692C2C143B}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{320BE82B-83BC-48B1-AEB2-80AD1C46E805}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
